--- a/Practice/src/test/resources/TestData.xlsx
+++ b/Practice/src/test/resources/TestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="257">
   <si>
     <t/>
   </si>
@@ -107,6 +107,684 @@
   </si>
   <si>
     <t>Apple iPhone 16 Plus (Teal, 256 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Amber Yellow, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹46,999</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Onyx Black, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹52,999</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Onyx Black, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G (Graphite, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹35,999</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Marble Gray, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Amber Yellow, 256 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Cobalt Violet, 256 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Marble Gray, 256 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G (Graphite, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹41,999</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G (Blue, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Amber Yellow, 512 GB)</t>
+  </si>
+  <si>
+    <t>₹82,999</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Onyx Black, 512 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G (Blue, 256 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G (Mint, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 5G (Cobalt Violet, 128 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 FE 5G (Mint, 256 GB)</t>
+  </si>
+  <si>
+    <t>Samsung S24 5G (Cobalt Violet, 512 GB)</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G (Titanium Gray, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹86,826</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G (Titanium Black, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹85,293</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G (Titanium Violet, 256 GB)</t>
+  </si>
+  <si>
+    <t>₹85,198</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G (Titanium Gray, 512 GB)</t>
+  </si>
+  <si>
+    <t>₹99,499</t>
+  </si>
+  <si>
+    <t>₹84,945</t>
+  </si>
+  <si>
+    <t>₹84,790</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S24 Ultra 5G (Titanium Black, 512 GB)</t>
+  </si>
+  <si>
+    <t>₹1,30,999</t>
+  </si>
+  <si>
+    <t>POCO F3 GT 5G (Gunmetal Silver, 128 GB)</t>
+  </si>
+  <si>
+    <t>₹26,999</t>
+  </si>
+  <si>
+    <t>Docile Mobile Body Panel Compatible For POCO F3 GT Back Panel</t>
+  </si>
+  <si>
+    <t>₹193</t>
+  </si>
+  <si>
+    <t>VRAVMO POCO F3 GT Back Panel</t>
+  </si>
+  <si>
+    <t>₹252</t>
+  </si>
+  <si>
+    <t>Sandreezz (MZB09C6IN) Poco F3 GT (Real Back Camera lens Glass) Camera Lens Glass</t>
+  </si>
+  <si>
+    <t>₹229</t>
+  </si>
+  <si>
+    <t>Toppings Screen Guard for poco</t>
+  </si>
+  <si>
+    <t>₹210</t>
+  </si>
+  <si>
+    <t>ZINGTEL Front and Back Screen Guard for XIAOMI POCO F3 GT MZB09C6IN (Front Matte Finish &amp; Back 3d Carb...</t>
+  </si>
+  <si>
+    <t>₹249</t>
+  </si>
+  <si>
+    <t>tiddler Xiaomi Poco F3 GT Mobile Skin</t>
+  </si>
+  <si>
+    <t>₹500</t>
+  </si>
+  <si>
+    <t>HRIPRITHI Edge To Edge Screen Guard for Poco f3 gt</t>
+  </si>
+  <si>
+    <t>₹219</t>
+  </si>
+  <si>
+    <t>₹201</t>
+  </si>
+  <si>
+    <t>VOSKI Screen Guard for Poco F3 GT Front Flexible Impossible Fiber Glass (Not Tempered Glass)</t>
+  </si>
+  <si>
+    <t>ZORAM Impossible Screen Guard for Xiaomi Poco F3 GT</t>
+  </si>
+  <si>
+    <t>₹226</t>
+  </si>
+  <si>
+    <t>Flipkart SmartBuy Edge To Edge Tempered Glass for REDMI POCO F3 GT</t>
+  </si>
+  <si>
+    <t>₹231</t>
+  </si>
+  <si>
+    <t>₹1,928</t>
+  </si>
+  <si>
+    <t>APTIVOS Edge To Edge Tempered Glass for Poco F3 GT</t>
+  </si>
+  <si>
+    <t>₹658</t>
+  </si>
+  <si>
+    <t>Docile Poco F3 GT Back Panel</t>
+  </si>
+  <si>
+    <t>AL HAYY TRADERS XiAOMI POCO f3gt Back Panel</t>
+  </si>
+  <si>
+    <t>JINTECK Screen Guard for xiaomi poco f3 gt</t>
+  </si>
+  <si>
+    <t>TELMON PLUS Screen Guard for Xiaomi Poco F3 GT</t>
+  </si>
+  <si>
+    <t>GMR Edge To Edge Tempered Glass for Poco F3 GT</t>
+  </si>
+  <si>
+    <t>₹239</t>
+  </si>
+  <si>
+    <t>raxxy Screen Guard for Xiaomi Poco F3 GT</t>
+  </si>
+  <si>
+    <t>Jeeva Creation Xiaomi Poco F3 GT, xiaomi poco f3 gt Mobile Skin</t>
+  </si>
+  <si>
+    <t>Super Toy 10 Unbreakable Racing Mini Diecast Car Models...</t>
+  </si>
+  <si>
+    <t>₹297</t>
+  </si>
+  <si>
+    <t>Pandaoriginals BEETLE CAR WITH MUSIC AND LIGHTS, 1-4 YR...</t>
+  </si>
+  <si>
+    <t>₹1,797</t>
+  </si>
+  <si>
+    <t>Learn With Fun Die Cast Metal Unbreakable Push and Go M...</t>
+  </si>
+  <si>
+    <t>₹323</t>
+  </si>
+  <si>
+    <t>Learn With Fun Unbreakable Pull Back Texi Car Truck Bus...</t>
+  </si>
+  <si>
+    <t>₹296</t>
+  </si>
+  <si>
+    <t>Toys R Us Fastlane 1:32 Scale Luxury Suv Metal Cast Car...</t>
+  </si>
+  <si>
+    <t>₹571</t>
+  </si>
+  <si>
+    <t>HOT WHEELS 5 car gift pack</t>
+  </si>
+  <si>
+    <t>₹599</t>
+  </si>
+  <si>
+    <t>ZUNBELLA 1:32 Scale Rolls Royce Metal Die Cast Car With...</t>
+  </si>
+  <si>
+    <t>₹629</t>
+  </si>
+  <si>
+    <t>The Flyer's Bay 1:32 Scale DieCast Metal Pull-Back and ...</t>
+  </si>
+  <si>
+    <t>₹358</t>
+  </si>
+  <si>
+    <t>Toyco Alloy Metal Pull Back Mini Race Cars Set for Kids</t>
+  </si>
+  <si>
+    <t>₹278</t>
+  </si>
+  <si>
+    <t>Learn With Fun Die Cast Metal Mini Racing Car Toys for ...</t>
+  </si>
+  <si>
+    <t>₹262</t>
+  </si>
+  <si>
+    <t>Pandaoriginals Kids music and lights, 1 to 4 years, kid...</t>
+  </si>
+  <si>
+    <t>₹1,697</t>
+  </si>
+  <si>
+    <t>₹1,832</t>
+  </si>
+  <si>
+    <t>ZUNBELLA Land Rover Defender 1:36 Diecast Model With Op...</t>
+  </si>
+  <si>
+    <t>₹266</t>
+  </si>
+  <si>
+    <t>Learn With Fun Land Rover Defender 1:36 Diecast Model W...</t>
+  </si>
+  <si>
+    <t>₹281</t>
+  </si>
+  <si>
+    <t>GourPanda Monster Truck Cars, Push and Go Toy Trucks Fr...</t>
+  </si>
+  <si>
+    <t>₹27</t>
+  </si>
+  <si>
+    <t>centy Queen 70's Taxi (Cream) Meter No.9211 Mumbai Ki s...</t>
+  </si>
+  <si>
+    <t>₹267</t>
+  </si>
+  <si>
+    <t>Toys R Us Avigo POBO (1-8yrs) Jeep Battery Operated Rid...</t>
+  </si>
+  <si>
+    <t>₹7,204</t>
+  </si>
+  <si>
+    <t>Time 2 toys New Fast &amp; Furious Classic Lykan Hyper Spor...</t>
+  </si>
+  <si>
+    <t>₹1,545</t>
+  </si>
+  <si>
+    <t>Learn With Fun Mini Racing Die Cast Metal Car Toys for ...</t>
+  </si>
+  <si>
+    <t>Toyco 1:32 Scale Alloy Die-Cast Metal SUV Car Toy for K...</t>
+  </si>
+  <si>
+    <t>Toyco Police Car with Lights, Music and Siren Sound Fri...</t>
+  </si>
+  <si>
+    <t>₹275</t>
+  </si>
+  <si>
+    <t>PEACORA Unbreakable Die-Cast Aloy Cars Toy Set for Kids...</t>
+  </si>
+  <si>
+    <t>₹257</t>
+  </si>
+  <si>
+    <t>WISHKEY Remote Control Super High Speed Racing Car With...</t>
+  </si>
+  <si>
+    <t>₹540</t>
+  </si>
+  <si>
+    <t>centy Ambassador VIP with front 2 doors that open</t>
+  </si>
+  <si>
+    <t>₹224</t>
+  </si>
+  <si>
+    <t>Toyco 1:43 Scale Diecast Metal Mini Open Thar Jeep Toy ...</t>
+  </si>
+  <si>
+    <t>Learn With Fun 2 In 1 Bulldozer and Excavator Construct...</t>
+  </si>
+  <si>
+    <t>₹225</t>
+  </si>
+  <si>
+    <t>Adoere Unbreakable Die-Cast Aloy Cars Toy Set for Kids</t>
+  </si>
+  <si>
+    <t>₹255</t>
+  </si>
+  <si>
+    <t>DARVICE 1:24 FJ Cruiser Toy Car Model Diecast Metal Car...</t>
+  </si>
+  <si>
+    <t>₹1,799</t>
+  </si>
+  <si>
+    <t>Toyco 1:36 Scale Alloy Die-Cast Metal Motorsports Toy C...</t>
+  </si>
+  <si>
+    <t>Toyco 1:32 Scale Alloy Die-Cast Metal Sports Model Toy ...</t>
+  </si>
+  <si>
+    <t>₹383</t>
+  </si>
+  <si>
+    <t>TITIRANGI Monster Truck Cars,Push and Go Toy Trucks Fri...</t>
+  </si>
+  <si>
+    <t>₹30</t>
+  </si>
+  <si>
+    <t>Learn With Fun 1:32 Rolls Royce Phantom Die cast Metal ...</t>
+  </si>
+  <si>
+    <t>₹936</t>
+  </si>
+  <si>
+    <t>ZUNBELLA Rolls Royce 1:32 Scale Metal Die Cast Car With...</t>
+  </si>
+  <si>
+    <t>₹341</t>
+  </si>
+  <si>
+    <t>BUKU Thar toy|Openable doors|Pullback|Diecast| Diecast ...</t>
+  </si>
+  <si>
+    <t>Toyco 1:36 Scale Alloy Die-Cast Metal SUV Car Toy for K...</t>
+  </si>
+  <si>
+    <t>Toyco 1:36 Scale Alloy DieCast Metal Motorsports Toy Ca...</t>
+  </si>
+  <si>
+    <t>₹896</t>
+  </si>
+  <si>
+    <t>Toybot 1:32 Scale Die-Cast Defender Toy Car - Openable ...</t>
+  </si>
+  <si>
+    <t>₹238</t>
+  </si>
+  <si>
+    <t>centy toys Toyzzone VIP Ambassador Car</t>
+  </si>
+  <si>
+    <t>Learn With Fun Die Cast Metal Mini Racing Unbreakable C...</t>
+  </si>
+  <si>
+    <t>fizz Mini Monster Trucks Friction Powered Cars for Kids...</t>
+  </si>
+  <si>
+    <t>₹161</t>
+  </si>
+  <si>
+    <t>₹1,309</t>
+  </si>
+  <si>
+    <t>Devdhan 1 :32 Cullinan Mansory SUV Die cast Car Metal C...</t>
+  </si>
+  <si>
+    <t>₹733</t>
+  </si>
+  <si>
+    <t>Galactic 1:32 Die-cast brabus benz toy car Metal Cars B...</t>
+  </si>
+  <si>
+    <t>₹926</t>
+  </si>
+  <si>
+    <t>Galactic 1:32 Die-cast brabus benz toy car Metal Cars S...</t>
+  </si>
+  <si>
+    <t>₹840</t>
+  </si>
+  <si>
+    <t>Galactic 1:32 Die-cast AMG Pullback Toy Car for Kids Be...</t>
+  </si>
+  <si>
+    <t>₹883</t>
+  </si>
+  <si>
+    <t>Galactic Alloy Metal Lambor Aventador SV Car Diecast Mo...</t>
+  </si>
+  <si>
+    <t>₹240</t>
+  </si>
+  <si>
+    <t>viaan world Miniature Model of Fortune Toy Car</t>
+  </si>
+  <si>
+    <t>₹888</t>
+  </si>
+  <si>
+    <t>Galactic New 1:32 Die-cast brabus benz toy car Metal Ca...</t>
+  </si>
+  <si>
+    <t>₹414</t>
+  </si>
+  <si>
+    <t>centy VIP Ambassador Car Pack Of 2 - Pull Back Toy - (P...</t>
+  </si>
+  <si>
+    <t>₹807</t>
+  </si>
+  <si>
+    <t>SR Toys Metal Master Car Set (Set of 6)</t>
+  </si>
+  <si>
+    <t>Galactic 1:32 Lykan Hypersport Best Diecast Metal Pullb...</t>
+  </si>
+  <si>
+    <t>₹473</t>
+  </si>
+  <si>
+    <t>centy G Power with spare rear Wheel andPullbackaction</t>
+  </si>
+  <si>
+    <t>₹603</t>
+  </si>
+  <si>
+    <t>Galactic 2 Pack 4WD Monster Truck Cars,Push and Go Toy ...</t>
+  </si>
+  <si>
+    <t>₹196</t>
+  </si>
+  <si>
+    <t>WooZee FAST AND FURIOUS METAL DIE CAST MINIATURE PULL B...</t>
+  </si>
+  <si>
+    <t>₹1,201</t>
+  </si>
+  <si>
+    <t>SR Toys Transforming Revolving Mini Racing Cartoon Toy ...</t>
+  </si>
+  <si>
+    <t>₹1,040</t>
+  </si>
+  <si>
+    <t>TITIRANGI cartoon printed car toy 4 Wheler car for kids...</t>
+  </si>
+  <si>
+    <t>₹1,920</t>
+  </si>
+  <si>
+    <t>KTRS Die Cast Car Toy 1:32 Scale Unbreakable Friction P...</t>
+  </si>
+  <si>
+    <t>₹990</t>
+  </si>
+  <si>
+    <t>deoxy 1/32 Scale Rolls-Royce Phantom Diecast Metal Pull...</t>
+  </si>
+  <si>
+    <t>₹1,199</t>
+  </si>
+  <si>
+    <t>deoxy 1:24 Lykan Hypersport Die-cast Car, Toys for Kids...</t>
+  </si>
+  <si>
+    <t>₹1,904</t>
+  </si>
+  <si>
+    <t>COELON 1:32 Die-cast Toyota Prado Toy car Metal Cars To...</t>
+  </si>
+  <si>
+    <t>₹1,732</t>
+  </si>
+  <si>
+    <t>KTRS 1:32 Die-cast Metal Toy car Metal Cars Toy Cars Pu...</t>
+  </si>
+  <si>
+    <t>₹398</t>
+  </si>
+  <si>
+    <t>₹470</t>
+  </si>
+  <si>
+    <t>₹287</t>
+  </si>
+  <si>
+    <t>Little Olive Zoom Classic Car for Kids</t>
+  </si>
+  <si>
+    <t>₹286</t>
+  </si>
+  <si>
+    <t>ZUNBELLA Cash Spray Car Toy With Light, Music, 360° Rot...</t>
+  </si>
+  <si>
+    <t>centy KRT 1.6 (Plastic)</t>
+  </si>
+  <si>
+    <t>₹442</t>
+  </si>
+  <si>
+    <t>centy i 10</t>
+  </si>
+  <si>
+    <t>₹349</t>
+  </si>
+  <si>
+    <t>Aganta Mini Monster Truck Friction Powered Cars Toys 36...</t>
+  </si>
+  <si>
+    <t>₹205</t>
+  </si>
+  <si>
+    <t>Galactic Die-cast Metal McQueen Black Storm Pullback 6 ...</t>
+  </si>
+  <si>
+    <t>₹339</t>
+  </si>
+  <si>
+    <t>KOBBET Concept Racing Car Toy for Kids 360 Degree Rotat...</t>
+  </si>
+  <si>
+    <t>Shinsei Pull Back Miniature Scaled Models | Dinky Cars</t>
+  </si>
+  <si>
+    <t>₹279</t>
+  </si>
+  <si>
+    <t>centy Fortune</t>
+  </si>
+  <si>
+    <t>₹342</t>
+  </si>
+  <si>
+    <t>centy Ritz</t>
+  </si>
+  <si>
+    <t>₹326</t>
+  </si>
+  <si>
+    <t>viaan world Toy Car</t>
+  </si>
+  <si>
+    <t>₹246</t>
+  </si>
+  <si>
+    <t>₹1,069</t>
+  </si>
+  <si>
+    <t>Galactic 1:32 LAN Praudo Ally Metal Car Model Toy with ...</t>
+  </si>
+  <si>
+    <t>₹924</t>
+  </si>
+  <si>
+    <t>Akvanar Metal Car Toy Light &amp; Sound (Multicolior)</t>
+  </si>
+  <si>
+    <t>₹934</t>
+  </si>
+  <si>
+    <t>hph craft Toys for Kids Sound and Light Pull Back Cars ...</t>
+  </si>
+  <si>
+    <t>₹1,244</t>
+  </si>
+  <si>
+    <t>DEZICON ECOM 1:24 Die-cast Metal Toy car Pullback Toy c...</t>
+  </si>
+  <si>
+    <t>₹1,126</t>
+  </si>
+  <si>
+    <t>Skstore 1:32 Die-cast Metal Toy car Metal Cars Toy Cars...</t>
+  </si>
+  <si>
+    <t>LWF Unbreakable Pull Back Texi Car Truck Bus Plane Toy ...</t>
+  </si>
+  <si>
+    <t>₹489</t>
+  </si>
+  <si>
+    <t>GrabBasket Toddler Car ramp toy with 4 cars</t>
+  </si>
+  <si>
+    <t>₹510</t>
+  </si>
+  <si>
+    <t>Learn With Fun Unbreakable 7 pcs Pull Back Texi Car Tru...</t>
+  </si>
+  <si>
+    <t>₹367</t>
+  </si>
+  <si>
+    <t>Shinsei Pull Back Mahindra Scorpio | Opening Doors | Mi...</t>
+  </si>
+  <si>
+    <t>₹282</t>
+  </si>
+  <si>
+    <t>KAVANA Kids Toy Car Set for Age 2 3 4 5 6 7 8 ,Kids,Tod...</t>
+  </si>
+  <si>
+    <t>centy Ace Cng Cargo</t>
+  </si>
+  <si>
+    <t>₹382</t>
+  </si>
+  <si>
+    <t>₹314</t>
+  </si>
+  <si>
+    <t>LooknlveSports 09 Future Musical Stunt Car Rotate 360° ...</t>
+  </si>
+  <si>
+    <t>₹1,299</t>
+  </si>
+  <si>
+    <t>KAVANA Double Sided Friction Car Toys,Twister Pull Back...</t>
+  </si>
+  <si>
+    <t>₹495</t>
   </si>
 </sst>
 </file>
@@ -439,7 +1117,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,194 +1125,314 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>1</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>2</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>2</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>2</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>5</v>
+        <v>176</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>6</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>7</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>6</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>8</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>2</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>9</v>
+        <v>227</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>6</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>10</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>2</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>6</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>12</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>6</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>14</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>15</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>6</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>16</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>6</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>14</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>18</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>19</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>21</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>22</v>
+        <v>240</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>23</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>24</v>
+        <v>241</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>21</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>25</v>
+        <v>243</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>6</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>14</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>27</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>6</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>28</v>
+        <v>213</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>19</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>6</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>30</v>
+        <v>216</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>14</v>
+        <v>217</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
